--- a/output_file_add.xlsx
+++ b/output_file_add.xlsx
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>83.73999999999999</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>50.56</v>
+        <v>60.56</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>65.95</v>
+        <v>66.95</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>86.69</v>
+        <v>100.69</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>64.86</v>
+        <v>73.86</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>74.78</v>
+        <v>89.78</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>61.65</v>
+        <v>62.65</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>61.73999999999999</v>
+        <v>73.73999999999999</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>44.67</v>
+        <v>53.67</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>66.39</v>
+        <v>74.39</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
